--- a/biology/Médecine/Roger_de_La_Fuÿe/Roger_de_La_Fuÿe.xlsx
+++ b/biology/Médecine/Roger_de_La_Fuÿe/Roger_de_La_Fuÿe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Roger_de_La_Fu%C3%BFe</t>
+          <t>Roger_de_La_Fuÿe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roger Allotte de La Fuÿe est un médecin militaire et acupuncteur français né le 17 octobre 1890 à Nantes et mort le 30 mars 1961 dans le 16e arrondissement de Paris[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roger Allotte de La Fuÿe est un médecin militaire et acupuncteur français né le 17 octobre 1890 à Nantes et mort le 30 mars 1961 dans le 16e arrondissement de Paris.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Roger_de_La_Fu%C3%BFe</t>
+          <t>Roger_de_La_Fuÿe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Roger de La Fuÿe est le fils du général Georges Allotte de La Fuÿe et d'Edith Guillon, et le neveu du colonel François-Maurice Allotte de La Fuÿe et du compositeur Claude Guillon-Verne.
 Il suit ses études de médecine à Paris, puis voyage à travers à travers le monde, durant lequel il découvre l'acupuncture en Asie en 1913.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Roger_de_La_Fu%C3%BFe</t>
+          <t>Roger_de_La_Fuÿe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traité d'acupuncture 2, Atlas d'acupuncture, la synthèse pratique de l'acupuncture chinoise et de l'homéopathie : l'acupuncture chinoise sans mystère : la synthèse de l'acupuncture et de l'homéopathie, l'homéosiniatrie diathermique / Roger de La Fuÿe... / 2e édition / Paris : E. Le François , 1955
 L'Acupuncture / par le Dr Roger de La Fuy͏̈e... / Paris : Presses universitaires de France , 1956
